--- a/Sample_Bank_Data/JUN 2024.xlsx
+++ b/Sample_Bank_Data/JUN 2024.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\OneDrive_2025-04-23\Sample Bank Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E55F292B-0AEB-443C-9AD6-D85A8F962A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFEAE5D5-47B4-425E-A061-204C8B7E7AF3}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E55F292B-0AEB-443C-9AD6-D85A8F962A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92F725F0-CD5A-46D0-8FF2-F2033AA90215}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="12" r:id="rId1"/>
     <sheet name="CUSTOMER" sheetId="6" r:id="rId2"/>
     <sheet name="fact risk" sheetId="1" r:id="rId3"/>
-    <sheet name="Fact writeen-off" sheetId="8" r:id="rId4"/>
-    <sheet name="fact restructred" sheetId="10" r:id="rId5"/>
-    <sheet name="rating" sheetId="5" r:id="rId6"/>
-    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId7"/>
-    <sheet name="Risk Limit" sheetId="13" r:id="rId8"/>
-    <sheet name="STAGING" sheetId="7" r:id="rId9"/>
+    <sheet name="Provision" sheetId="14" r:id="rId4"/>
+    <sheet name="Fact writeen-off" sheetId="8" r:id="rId5"/>
+    <sheet name="fact restructred" sheetId="10" r:id="rId6"/>
+    <sheet name="rating" sheetId="5" r:id="rId7"/>
+    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId8"/>
+    <sheet name="PD" sheetId="15" r:id="rId9"/>
+    <sheet name="Risk Limit" sheetId="13" r:id="rId10"/>
+    <sheet name="STAGING" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'fact risk'!$B$1:$AD$51</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="218">
   <si>
     <t>Types of Collaterals</t>
   </si>
@@ -358,6 +360,12 @@
     <t>3E</t>
   </si>
   <si>
+    <t>Provision Stages</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -583,163 +591,103 @@
     <t>Internal Rating</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>BBB-</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>BB-</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>CCC+</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>CCC-</t>
+  </si>
+  <si>
+    <t>Caa3</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>PD 2024</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>0.0020%</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>Aa1</t>
-  </si>
-  <si>
-    <t>0.0232%</t>
-  </si>
-  <si>
-    <t>Aa2</t>
-  </si>
-  <si>
-    <t>0.0518%</t>
-  </si>
-  <si>
-    <t>0.1112%</t>
-  </si>
-  <si>
-    <t>0.2080%</t>
-  </si>
-  <si>
-    <t>0.3796%</t>
-  </si>
-  <si>
-    <t>0.5940%</t>
-  </si>
-  <si>
-    <t>Baa1</t>
-  </si>
-  <si>
-    <t>0.9130%</t>
-  </si>
-  <si>
-    <t>Baa2</t>
-  </si>
-  <si>
-    <t>1.3200%</t>
-  </si>
-  <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>Baa3</t>
-  </si>
-  <si>
-    <t>2.6180%</t>
-  </si>
-  <si>
-    <t>Ba1</t>
-  </si>
-  <si>
-    <t>4.6200%</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Ba2</t>
-  </si>
-  <si>
-    <t>7.4800%</t>
-  </si>
-  <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>Ba3</t>
-  </si>
-  <si>
-    <t>10.7690%</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>15.2350%</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>19.9420%</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>26.4440%</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>Caa1</t>
-  </si>
-  <si>
-    <t>35.7268%</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>Caa2</t>
-  </si>
-  <si>
-    <t>48.2680%</t>
-  </si>
-  <si>
-    <t>CCC-</t>
-  </si>
-  <si>
-    <t>Caa3</t>
-  </si>
-  <si>
-    <t>72.8662%</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>100.0000%</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DD</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1323,6 +1271,355 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8EF8D1-C9DC-4940-9579-E08A4DA1DBAB}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>176640000</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="33">
+        <v>100000000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33">
+        <v>550000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>158720000</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="33">
+        <v>320000000</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="33">
+        <v>510000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>140800000</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="33">
+        <v>390000000</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="33">
+        <v>780000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>122880000</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="33">
+        <v>180000000</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="33">
+        <v>1040000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>118784000</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="33">
+        <v>270000000</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="33">
+        <v>360000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>108784000</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="33">
+        <v>560000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>94208000</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>81920000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>69632000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>57344000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33">
+        <v>36864000</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33">
+        <v>26624000</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33">
+        <v>16384000</v>
+      </c>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>12288000</v>
+      </c>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>8192000</v>
+      </c>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33">
+        <v>4915200</v>
+      </c>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1228800</v>
+      </c>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="F19" s="33"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="D23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="D24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="D25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="D26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="D27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="D28" s="33"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="D29" s="33"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAC753-FD4B-4174-9852-2B0C91699448}">
   <dimension ref="B1:F51"/>
@@ -2222,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -7671,6 +7968,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6837168F-88EF-4F0F-8E86-62E241A7C3CF}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0525FA23-3CAD-4855-B532-1A977B48E93A}">
   <dimension ref="B2:G42"/>
   <sheetViews>
@@ -7690,27 +8040,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="16">
         <v>26957145.599999998</v>
@@ -7719,20 +8069,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5401912.1200000001</v>
+        <v>5405317.1200000001</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21555233.479999997</v>
+        <v>21551828.479999997</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="16">
         <v>40426848</v>
@@ -7741,20 +8091,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8108047.6000000006</v>
+        <v>8095122.6000000006</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>32318800.399999999</v>
+        <v>32331725.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16">
         <v>53896550.399999999</v>
@@ -7763,20 +8113,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10799310.08</v>
+        <v>10783302.08</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43097240.32</v>
+        <v>43113248.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30">
       <c r="B6" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6" s="16">
         <v>67366252.799999997</v>
@@ -7785,20 +8135,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13483004.560000001</v>
+        <v>13485985.560000001</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>53883248.239999995</v>
+        <v>53880267.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30">
       <c r="B7" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="16">
         <v>80835955.199999988</v>
@@ -7807,20 +8157,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16175323.039999999</v>
+        <v>16176933.039999999</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64660632.159999989</v>
+        <v>64659022.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="16">
         <v>94305657.600000009</v>
@@ -7829,20 +8179,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18881424.520000003</v>
+        <v>18873907.520000003</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75424233.080000013</v>
+        <v>75431750.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30">
       <c r="B9" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="16">
         <v>107760576</v>
@@ -7851,20 +8201,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21560570.200000003</v>
+        <v>21570906.200000003</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86200005.799999997</v>
+        <v>86189669.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="16">
         <v>121082438.39999999</v>
@@ -7873,20 +8223,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24240912.68</v>
+        <v>24232225.68</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>96841525.719999999</v>
+        <v>96850212.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30">
       <c r="B11" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="16">
         <v>133073740.8</v>
@@ -7895,20 +8245,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26632660.16</v>
+        <v>26632388.16</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>106441080.64</v>
+        <v>106441352.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C12" s="16">
         <v>146543443.19999999</v>
@@ -7917,20 +8267,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29328819.640000001</v>
+        <v>29310017.640000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117214623.55999999</v>
+        <v>117233425.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C13" s="16">
         <v>16608345.6</v>
@@ -7939,20 +8289,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3345615.12</v>
+        <v>3338371.12</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>13262730.48</v>
+        <v>13269974.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C14" s="16">
         <v>33034848</v>
@@ -7961,20 +8311,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6610891.6000000006</v>
+        <v>6631046.6000000006</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>26423956.399999999</v>
+        <v>26403801.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30">
       <c r="B15" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16">
         <v>49461350.399999999</v>
@@ -7983,20 +8333,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9897833.0800000001</v>
+        <v>9914041.0800000001</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39563517.32</v>
+        <v>39547309.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C16" s="16">
         <v>65887852.800000004</v>
@@ -8005,20 +8355,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13194275.560000002</v>
+        <v>13187664.560000002</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>52693577.240000002</v>
+        <v>52700188.240000002</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C17" s="16">
         <v>82314355.199999988</v>
@@ -8027,20 +8377,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16479361.039999999</v>
+        <v>16464843.039999999</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>65834994.159999989</v>
+        <v>65849512.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C18" s="16">
         <v>98740857.600000009</v>
@@ -8049,20 +8399,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19751176.520000003</v>
+        <v>19768165.520000003</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>78989681.080000013</v>
+        <v>78972692.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="16">
         <v>115152576</v>
@@ -8071,20 +8421,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23053045.200000003</v>
+        <v>23039515.200000003</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>92099530.799999997</v>
+        <v>92113060.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C20" s="16">
         <v>131431238.39999999</v>
@@ -8093,20 +8443,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26294375.68</v>
+        <v>26300577.68</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>105136862.72</v>
+        <v>105130660.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30">
       <c r="B21" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" s="16">
         <v>146379340.79999998</v>
@@ -8115,20 +8465,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29284962.159999996</v>
+        <v>29281261.159999996</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117094378.63999999</v>
+        <v>117098079.63999999</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C22" s="16">
         <v>14965843.200000001</v>
@@ -8137,20 +8487,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3005740.6400000006</v>
+        <v>3017972.6400000006</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>11960102.560000001</v>
+        <v>11947870.560000001</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="16">
         <v>31392345.599999998</v>
@@ -8159,20 +8509,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6293861.1200000001</v>
+        <v>6287082.1200000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>25098484.479999997</v>
+        <v>25105263.479999997</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="16">
         <v>47818848</v>
@@ -8181,20 +8531,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9586807.5999999996</v>
+        <v>9581590.5999999996</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>38232040.399999999</v>
+        <v>38237257.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30">
       <c r="B25" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C25" s="16">
         <v>64245350.399999999</v>
@@ -8203,20 +8553,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12853346.08</v>
+        <v>12852827.08</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51392004.32</v>
+        <v>51392523.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="16">
         <v>80671852.799999997</v>
@@ -8225,20 +8575,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16146523.560000001</v>
+        <v>16155850.560000001</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64525329.239999995</v>
+        <v>64516002.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30">
       <c r="B27" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C27" s="16">
         <v>97098355.199999988</v>
@@ -8247,20 +8597,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19431387.039999999</v>
+        <v>19431221.039999999</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>77666968.159999996</v>
+        <v>77667134.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C28" s="16">
         <v>113524857.60000001</v>
@@ -8269,20 +8619,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22706201.520000003</v>
+        <v>22716448.520000003</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>90818656.080000013</v>
+        <v>90808409.080000013</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C29" s="16">
         <v>129936576</v>
@@ -8291,20 +8641,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25992727.200000003</v>
+        <v>25988490.200000003</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>103943848.8</v>
+        <v>103948085.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30">
       <c r="B30" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C30" s="16">
         <v>146215238.40000001</v>
@@ -8313,20 +8663,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29254514.680000003</v>
+        <v>29262481.680000003</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>116960723.72</v>
+        <v>116952756.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C31" s="16">
         <v>28107340.799999997</v>
@@ -8335,20 +8685,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5638690.1600000001</v>
+        <v>5630784.1600000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>22468650.639999997</v>
+        <v>22476556.639999997</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C32" s="16">
         <v>44533843.199999996</v>
@@ -8357,20 +8707,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8920602.6399999987</v>
+        <v>8920793.6399999987</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>35613240.559999995</v>
+        <v>35613049.559999995</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
       <c r="B33" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="16">
         <v>60960345.599999994</v>
@@ -8379,20 +8729,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12200894.119999999</v>
+        <v>12199671.119999999</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48759451.479999997</v>
+        <v>48760674.479999997</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C34" s="16">
         <v>77386848</v>
@@ -8401,20 +8751,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15485603.600000001</v>
+        <v>15480884.600000001</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>61901244.399999999</v>
+        <v>61905963.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C35" s="16">
         <v>93813350.399999991</v>
@@ -8423,20 +8773,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18777246.079999998</v>
+        <v>18783487.079999998</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75036104.319999993</v>
+        <v>75029863.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30">
       <c r="B36" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C36" s="16">
         <v>110239852.8</v>
@@ -8445,20 +8795,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22070653.560000002</v>
+        <v>22056358.560000002</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>88169199.239999995</v>
+        <v>88183494.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C37" s="16">
         <v>126666355.19999999</v>
@@ -8467,20 +8817,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25351344.039999999</v>
+        <v>25352993.039999999</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>101315011.16</v>
+        <v>101313362.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="16">
         <v>143092857.59999999</v>
@@ -8489,20 +8839,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28621626.52</v>
+        <v>28636978.52</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>114471231.08</v>
+        <v>114455879.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30">
       <c r="B39" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C39" s="16">
         <v>26448576</v>
@@ -8511,20 +8861,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5302875.2</v>
+        <v>5313007.2</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21145700.800000001</v>
+        <v>21135568.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C40" s="16">
         <v>42727238.399999999</v>
@@ -8533,20 +8883,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F40" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8554289.6799999997</v>
+        <v>8546408.6799999997</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>34172948.719999999</v>
+        <v>34180829.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C41" s="16">
         <v>57675340.800000004</v>
@@ -8555,20 +8905,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>11537063.160000002</v>
+        <v>11549451.160000002</v>
       </c>
       <c r="G41" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>46138277.640000001</v>
+        <v>46125889.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C42" s="16">
         <v>74101843.200000003</v>
@@ -8577,15 +8927,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14834247.640000001</v>
+        <v>14821959.640000001</v>
       </c>
       <c r="G42" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>59267595.560000002</v>
+        <v>59279883.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -8593,7 +8943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67618C1-C8A0-47B6-8B25-F487EA031E1F}">
   <dimension ref="B2:F42"/>
   <sheetViews>
@@ -8621,10 +8971,10 @@
         <v>75</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -8695,7 +9045,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C41" s="19">
         <v>6</v>
@@ -8713,7 +9063,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C42" s="19">
         <v>7</v>
@@ -8734,7 +9084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63958FAE-3AAE-44C0-9CCD-F6FFBDEF2641}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -8768,13 +9118,13 @@
         <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8782,7 +9132,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -8794,10 +9144,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8819,10 +9169,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8843,10 +9193,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8867,10 +9217,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8891,10 +9241,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8916,10 +9266,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8941,10 +9291,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8966,10 +9316,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8991,10 +9341,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9016,10 +9366,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9041,7 +9391,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9063,10 +9413,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9088,7 +9438,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9111,7 +9461,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9133,7 +9483,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9155,10 +9505,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9180,7 +9530,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9202,7 +9552,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9224,7 +9574,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9247,7 +9597,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9269,7 +9619,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9291,7 +9641,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9313,7 +9663,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9335,7 +9685,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9357,7 +9707,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9379,7 +9729,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9401,10 +9751,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9426,10 +9776,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9451,7 +9801,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9473,7 +9823,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9496,7 +9846,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9518,10 +9868,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9543,10 +9893,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9568,10 +9918,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9593,10 +9943,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9618,7 +9968,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -9640,7 +9990,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9662,7 +10012,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9684,10 +10034,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9709,10 +10059,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9734,7 +10084,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9756,7 +10106,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9778,7 +10128,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9800,7 +10150,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9822,7 +10172,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9844,7 +10194,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9866,7 +10216,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9888,7 +10238,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9910,7 +10260,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9932,552 +10282,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>209</v>
-      </c>
-      <c r="I16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>212</v>
-      </c>
-      <c r="I17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>215</v>
-      </c>
-      <c r="I18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>221</v>
-      </c>
-      <c r="I20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>224</v>
-      </c>
-      <c r="I21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="C22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>226</v>
-      </c>
-      <c r="I22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -10486,336 +10291,415 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8EF8D1-C9DC-4940-9579-E08A4DA1DBAB}">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="29" t="s">
+    <row r="1" spans="1:5" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="31">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
-        <v>176640000</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="33">
-        <v>100000000</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="J2" s="33">
-        <v>550000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>158720000</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="33">
-        <v>320000000</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="33">
-        <v>510000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>140800000</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="33">
-        <v>390000000</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="33">
-        <v>780000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33">
-        <v>122880000</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="33">
-        <v>180000000</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="33">
-        <v>1040000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>118784000</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="33">
-        <v>270000000</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="33">
-        <v>360000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="31">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33">
-        <v>108784000</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="33">
-        <v>560000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33">
-        <v>94208000</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="33">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="31">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>81920000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33">
-        <v>69632000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="31">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33">
-        <v>57344000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="31">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33">
-        <v>36864000</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="31">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33">
-        <v>26624000</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33">
-        <v>16384000</v>
-      </c>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33">
-        <v>12288000</v>
-      </c>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33">
-        <v>8192000</v>
-      </c>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="31">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33">
-        <v>4915200</v>
-      </c>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="31">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33">
-        <v>1228800</v>
-      </c>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="F19" s="33"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="D23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="D24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="H24" s="33"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="D25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="D26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="D27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="D28" s="33"/>
-      <c r="F28" s="33"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="D29" s="33"/>
-      <c r="F29" s="33"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="33"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10823,13 +10707,256 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C401D0B-FD19-4811-808A-6740FA2CAFEA}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19.942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>26.443999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.726799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>48.268000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>72.866200000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sample_Bank_Data/JUN 2024.xlsx
+++ b/Sample_Bank_Data/JUN 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFFE07B2-2724-42B7-830B-400E1E4FEBDB}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A31C343-928D-4507-9310-2E382DFDCAA2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="309">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -1941,21 +1686,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1969,7 +1714,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1983,7 +1728,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1997,7 +1742,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2011,7 +1756,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2025,7 +1770,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2039,7 +1784,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2053,7 +1798,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2067,7 +1812,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2081,7 +1826,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2095,7 +1840,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2109,7 +1854,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2123,7 +1868,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2137,7 +1882,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2151,7 +1896,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2165,7 +1910,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2179,7 +1924,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2193,7 +1938,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2207,7 +1952,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2221,7 +1966,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2235,7 +1980,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="B22">
         <v>17</v>
@@ -2275,22 +2020,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8647,8 +8392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9511,7 +9256,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9543,7 +9288,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9575,7 +9320,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9607,7 +9352,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9639,7 +9384,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9671,7 +9416,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9703,7 +9448,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9735,7 +9480,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9767,7 +9512,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9799,7 +9544,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9831,7 +9576,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9863,7 +9608,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9895,7 +9640,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9927,7 +9672,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9959,7 +9704,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9991,7 +9736,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10023,7 +9768,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10055,7 +9800,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10087,7 +9832,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10119,7 +9864,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10151,7 +9896,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10183,7 +9928,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10215,7 +9960,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10247,7 +9992,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10279,7 +10024,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10311,7 +10056,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10343,7 +10088,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10375,7 +10120,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10407,7 +10152,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10439,7 +10184,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10471,7 +10216,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10503,7 +10248,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10535,7 +10280,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10567,7 +10312,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10599,7 +10344,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10631,7 +10376,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10663,7 +10408,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10695,7 +10440,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10727,7 +10472,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10759,7 +10504,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10791,7 +10536,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10823,7 +10568,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10855,7 +10600,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10887,7 +10632,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10919,7 +10664,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10951,7 +10696,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10983,7 +10728,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11015,7 +10760,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11047,7 +10792,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11079,7 +10824,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11111,7 +10856,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11143,7 +10888,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11175,7 +10920,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11207,7 +10952,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11239,7 +10984,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11271,7 +11016,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11303,7 +11048,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11335,7 +11080,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11367,7 +11112,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11399,7 +11144,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11431,7 +11176,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11463,7 +11208,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11495,7 +11240,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11527,7 +11272,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11559,7 +11304,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11591,7 +11336,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11623,7 +11368,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11655,7 +11400,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11687,7 +11432,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11719,7 +11464,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11751,7 +11496,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11783,7 +11528,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11815,7 +11560,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11847,7 +11592,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11879,7 +11624,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11911,7 +11656,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11943,7 +11688,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11975,7 +11720,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12007,7 +11752,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12039,7 +11784,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12071,7 +11816,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12103,7 +11848,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12135,7 +11880,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12167,7 +11912,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12199,7 +11944,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12231,7 +11976,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12263,7 +12008,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12295,7 +12040,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12327,7 +12072,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12359,7 +12104,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12391,7 +12136,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12423,7 +12168,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12455,7 +12200,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12487,7 +12232,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12519,7 +12264,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12551,7 +12296,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12583,7 +12328,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12615,7 +12360,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12647,7 +12392,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12679,7 +12424,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12711,7 +12456,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12743,7 +12488,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12775,7 +12520,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12807,7 +12552,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12839,7 +12584,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12871,7 +12616,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12903,7 +12648,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12935,7 +12680,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12967,7 +12712,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12999,7 +12744,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13031,7 +12776,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13063,7 +12808,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13095,7 +12840,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13127,7 +12872,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13159,7 +12904,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13191,7 +12936,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13223,7 +12968,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13255,7 +13000,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13287,7 +13032,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13319,7 +13064,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13351,7 +13096,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13383,7 +13128,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13409,7 +13154,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13439,7 +13184,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -13467,27 +13212,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="27" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="C3" s="28">
         <v>26957145.600000001</v>
@@ -13496,20 +13241,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5398642.120000001</v>
+        <v>5414204.120000001</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21558503.48</v>
+        <v>21542941.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C4" s="28">
         <v>40426848</v>
@@ -13518,20 +13263,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8105077.6000000006</v>
+        <v>8100472.6000000006</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>32321770.399999999</v>
+        <v>32326375.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="27" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="C5" s="28">
         <v>53896550.399999999</v>
@@ -13540,20 +13285,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10790676.08</v>
+        <v>10794890.08</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43105874.32</v>
+        <v>43101660.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="B6" s="27" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C6" s="28">
         <v>67366252.799999997</v>
@@ -13562,20 +13307,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13489969.560000001</v>
+        <v>13474756.560000001</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53876283.239999995</v>
+        <v>53891496.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C7" s="28">
         <v>80835955.199999988</v>
@@ -13584,20 +13329,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16187233.039999999</v>
+        <v>16174124.039999999</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64648722.159999989</v>
+        <v>64661831.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C8" s="28">
         <v>94305657.600000009</v>
@@ -13606,20 +13351,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18869621.520000003</v>
+        <v>18880150.520000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75436036.080000013</v>
+        <v>75425507.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C9" s="28">
         <v>107760576</v>
@@ -13628,20 +13373,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21552978.200000003</v>
+        <v>21576780.200000003</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86207597.799999997</v>
+        <v>86183795.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C10" s="28">
         <v>121082438.40000001</v>
@@ -13650,20 +13395,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24235246.680000003</v>
+        <v>24226641.680000003</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96847191.719999999</v>
+        <v>96855796.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
       <c r="B11" s="27" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C11" s="28">
         <v>133073740.8</v>
@@ -13672,20 +13417,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26617225.16</v>
+        <v>26620294.16</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>106456515.64</v>
+        <v>106453446.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="27" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C12" s="28">
         <v>146543443.19999999</v>
@@ -13694,20 +13439,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29316797.640000001</v>
+        <v>29323441.640000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117226645.55999999</v>
+        <v>117220001.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="27" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C13" s="28">
         <v>16608345.6</v>
@@ -13716,20 +13461,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3322402.12</v>
+        <v>3324402.12</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13285943.48</v>
+        <v>13283943.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C14" s="28">
         <v>33034848</v>
@@ -13738,20 +13483,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6614204.6000000006</v>
+        <v>6628711.6000000006</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26420643.399999999</v>
+        <v>26406136.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C15" s="28">
         <v>49461350.399999999</v>
@@ -13760,20 +13505,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9913151.0800000001</v>
+        <v>9909441.0800000001</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39548199.32</v>
+        <v>39551909.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="27" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C16" s="28">
         <v>65887852.799999997</v>
@@ -13782,20 +13527,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13193527.560000001</v>
+        <v>13188338.560000001</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52694325.239999995</v>
+        <v>52699514.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C17" s="28">
         <v>82314355.199999988</v>
@@ -13804,20 +13549,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16474689.039999999</v>
+        <v>16480906.039999999</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65839666.159999989</v>
+        <v>65833449.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="27" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C18" s="28">
         <v>98740857.600000009</v>
@@ -13826,20 +13571,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19772014.520000003</v>
+        <v>19762936.520000003</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78968843.080000013</v>
+        <v>78977921.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="27" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C19" s="28">
         <v>115152576</v>
@@ -13848,20 +13593,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23047613.200000003</v>
+        <v>23036918.200000003</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92104962.799999997</v>
+        <v>92115657.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C20" s="28">
         <v>131431238.40000001</v>
@@ -13870,20 +13615,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26286550.680000003</v>
+        <v>26296698.680000003</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105144687.72</v>
+        <v>105134539.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="27" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C21" s="28">
         <v>146379340.80000001</v>
@@ -13892,20 +13637,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29288322.160000004</v>
+        <v>29289861.160000004</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117091018.64000002</v>
+        <v>117089479.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="27" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C22" s="28">
         <v>14965843.199999999</v>
@@ -13914,20 +13659,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3011595.64</v>
+        <v>3002036.64</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11954247.559999999</v>
+        <v>11963806.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C23" s="28">
         <v>31392345.600000001</v>
@@ -13936,20 +13681,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6289463.120000001</v>
+        <v>6294128.120000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25102882.48</v>
+        <v>25098217.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="27" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C24" s="28">
         <v>47818848</v>
@@ -13958,20 +13703,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9564516.5999999996</v>
+        <v>9579146.5999999996</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38254331.399999999</v>
+        <v>38239701.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="27" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C25" s="28">
         <v>64245350.399999999</v>
@@ -13980,20 +13725,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12870974.08</v>
+        <v>12862531.08</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51374376.32</v>
+        <v>51382819.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C26" s="28">
         <v>80671852.799999997</v>
@@ -14002,20 +13747,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16142780.560000001</v>
+        <v>16137182.560000001</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64529072.239999995</v>
+        <v>64534670.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C27" s="28">
         <v>97098355.199999988</v>
@@ -14024,20 +13769,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19421425.039999999</v>
+        <v>19421717.039999999</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77676930.159999996</v>
+        <v>77676638.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C28" s="28">
         <v>113524857.59999999</v>
@@ -14046,20 +13791,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22729724.52</v>
+        <v>22722905.52</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90795133.079999998</v>
+        <v>90801952.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C29" s="28">
         <v>129936576</v>
@@ -14068,20 +13813,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26008921.200000003</v>
+        <v>25989876.200000003</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103927654.8</v>
+        <v>103946699.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C30" s="28">
         <v>146215238.40000001</v>
@@ -14090,20 +13835,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29248943.680000003</v>
+        <v>29266237.680000003</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116966294.72</v>
+        <v>116949000.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C31" s="28">
         <v>28107340.800000001</v>
@@ -14112,20 +13857,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5628583.1600000001</v>
+        <v>5641156.1600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22478757.640000001</v>
+        <v>22466184.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C32" s="28">
         <v>44533843.200000003</v>
@@ -14134,20 +13879,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8913093.6400000006</v>
+        <v>8931033.6400000006</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35620749.560000002</v>
+        <v>35602809.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C33" s="28">
         <v>60960345.599999987</v>
@@ -14156,20 +13901,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12202538.119999997</v>
+        <v>12192483.119999997</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48757807.479999989</v>
+        <v>48767862.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C34" s="28">
         <v>77386848</v>
@@ -14178,20 +13923,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15494753.600000001</v>
+        <v>15490096.600000001</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61892094.399999999</v>
+        <v>61896751.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C35" s="28">
         <v>93813350.399999991</v>
@@ -14200,20 +13945,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18785741.079999998</v>
+        <v>18763067.079999998</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75027609.319999993</v>
+        <v>75050283.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C36" s="28">
         <v>110239852.8</v>
@@ -14222,20 +13967,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22049259.560000002</v>
+        <v>22064939.560000002</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88190593.239999995</v>
+        <v>88174913.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="27" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C37" s="28">
         <v>126666355.2</v>
@@ -14244,20 +13989,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25337519.040000003</v>
+        <v>25347462.040000003</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101328836.16</v>
+        <v>101318893.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="27" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C38" s="28">
         <v>143092857.59999999</v>
@@ -14266,20 +14011,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28623019.52</v>
+        <v>28640103.52</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114469838.08</v>
+        <v>114452754.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="27" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C39" s="28">
         <v>26448576</v>
@@ -14288,20 +14033,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5312220.2</v>
+        <v>5302853.2</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21136355.800000001</v>
+        <v>21145722.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="27" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C40" s="28">
         <v>42727238.399999999</v>
@@ -14310,20 +14055,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F40" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8553048.6799999997</v>
+        <v>8547970.6799999997</v>
       </c>
       <c r="G40" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34174189.719999999</v>
+        <v>34179267.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="27" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C41" s="28">
         <v>57675340.799999997</v>
@@ -14332,20 +14077,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F41" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11553048.16</v>
+        <v>11544216.16</v>
       </c>
       <c r="G41" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46122292.640000001</v>
+        <v>46131124.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="27" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="C42" s="28">
         <v>74101843.200000003</v>
@@ -14354,15 +14099,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F42" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14828493.640000001</v>
+        <v>14832428.640000001</v>
       </c>
       <c r="G42" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59273349.560000002</v>
+        <v>59269414.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14398,10 +14143,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14472,7 +14217,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C41" s="30">
         <v>6</v>
@@ -14490,7 +14235,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="30" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="C42" s="30">
         <v>7</v>
@@ -14545,13 +14290,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14559,7 +14304,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14571,10 +14316,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14596,10 +14341,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14620,10 +14365,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14644,10 +14389,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14668,10 +14413,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14693,10 +14438,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="H7" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14718,10 +14463,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14743,10 +14488,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H9" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14768,10 +14513,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14793,10 +14538,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14818,7 +14563,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14840,10 +14585,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14865,7 +14610,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14888,7 +14633,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14910,7 +14655,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14932,10 +14677,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14957,7 +14702,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14979,7 +14724,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15001,7 +14746,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15024,7 +14769,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15046,7 +14791,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15068,7 +14813,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15090,7 +14835,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15112,7 +14857,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15134,7 +14879,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15156,7 +14901,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15178,10 +14923,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15203,10 +14948,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15228,7 +14973,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15250,7 +14995,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15273,7 +15018,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15295,10 +15040,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15320,10 +15065,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H34" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15345,10 +15090,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15370,10 +15115,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15395,7 +15140,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15417,7 +15162,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15439,7 +15184,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15461,10 +15206,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H40" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15486,10 +15231,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15511,7 +15256,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15533,7 +15278,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15555,7 +15300,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15577,7 +15322,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15599,7 +15344,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15621,7 +15366,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15643,7 +15388,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15665,7 +15410,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15687,7 +15432,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15709,7 +15454,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -15729,30 +15474,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15763,13 +15508,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15780,13 +15525,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15797,13 +15542,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15814,13 +15559,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15831,13 +15576,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15848,13 +15593,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15865,13 +15610,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15882,13 +15627,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15899,13 +15644,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15916,13 +15661,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15933,13 +15678,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15950,13 +15695,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15967,13 +15712,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15984,13 +15729,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -16001,13 +15746,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -16018,13 +15763,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -16035,13 +15780,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -16052,13 +15797,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -16069,13 +15814,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -16086,7 +15831,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -16097,13 +15842,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16111,10 +15856,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16122,7 +15867,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D25">
         <v>1</v>

--- a/Sample_Bank_Data/JUN 2024.xlsx
+++ b/Sample_Bank_Data/JUN 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A31C343-928D-4507-9310-2E382DFDCAA2}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{374CECE0-0D92-4CDA-88C9-4E5E9F1D3E07}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="306">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1686,21 +1677,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>269</v>
-      </c>
       <c r="C1" s="33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1714,7 +1705,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1728,7 +1719,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1742,7 +1733,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1756,7 +1747,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1770,7 +1761,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1784,7 +1775,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1798,7 +1789,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1812,7 +1803,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1826,7 +1817,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1840,7 +1831,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1854,7 +1845,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1868,7 +1859,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1882,7 +1873,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1896,7 +1887,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1910,7 +1901,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1924,7 +1915,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1938,7 +1929,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1952,7 +1943,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -1966,7 +1957,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -1980,7 +1971,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B22">
         <v>17</v>
@@ -2020,22 +2011,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8392,8 +8383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8444,7 +8435,7 @@
         <v>6344233.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8453,10 +8444,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8476,7 +8467,7 @@
         <v>6344233.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8485,10 +8476,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8517,10 +8508,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8540,7 +8531,7 @@
         <v>12468699.5</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8549,10 +8540,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8572,7 +8563,7 @@
         <v>12468699.5</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8581,10 +8572,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8604,7 +8595,7 @@
         <v>49387628.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8613,10 +8604,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8636,7 +8627,7 @@
         <v>49387628.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8645,10 +8636,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8677,10 +8668,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8700,7 +8691,7 @@
         <v>49401707</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8709,10 +8700,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8732,7 +8723,7 @@
         <v>49401707</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8741,10 +8732,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8764,7 +8755,7 @@
         <v>11738751</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -8773,10 +8764,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8796,7 +8787,7 @@
         <v>11738751</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -8805,10 +8796,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8828,7 +8819,7 @@
         <v>38281106</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -8837,10 +8828,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8860,7 +8851,7 @@
         <v>38281106</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -8869,10 +8860,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8901,10 +8892,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8924,7 +8915,7 @@
         <v>28393414</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -8933,10 +8924,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -8956,7 +8947,7 @@
         <v>28393414</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -8965,10 +8956,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -8988,7 +8979,7 @@
         <v>43831322</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -8997,10 +8988,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9020,7 +9011,7 @@
         <v>43831322</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9029,10 +9020,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9052,7 +9043,7 @@
         <v>27156493.5</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9061,10 +9052,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9084,7 +9075,7 @@
         <v>27156493.5</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9093,10 +9084,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9116,7 +9107,7 @@
         <v>11729411</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9125,10 +9116,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9148,7 +9139,7 @@
         <v>11729411</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9157,10 +9148,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9180,7 +9171,7 @@
         <v>33951228.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9189,10 +9180,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9212,7 +9203,7 @@
         <v>33951228.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9221,10 +9212,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9244,7 +9235,7 @@
         <v>16065905.5</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9253,10 +9244,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9276,7 +9267,7 @@
         <v>16065905.5</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9285,10 +9276,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9308,7 +9299,7 @@
         <v>38280990</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9317,10 +9308,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9340,7 +9331,7 @@
         <v>38280990</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9349,10 +9340,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9381,10 +9372,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9404,7 +9395,7 @@
         <v>10546395.5</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9413,10 +9404,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9436,7 +9427,7 @@
         <v>10546395.5</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9445,10 +9436,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9468,7 +9459,7 @@
         <v>45075619</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9477,10 +9468,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9500,7 +9491,7 @@
         <v>45075619</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9509,10 +9500,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9541,10 +9532,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9564,7 +9555,7 @@
         <v>49385003</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9573,10 +9564,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9596,7 +9587,7 @@
         <v>49385003</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9605,10 +9596,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9637,10 +9628,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9660,7 +9651,7 @@
         <v>11734816</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9669,10 +9660,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9692,7 +9683,7 @@
         <v>11734816</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9701,10 +9692,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9724,7 +9715,7 @@
         <v>32719945.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9733,10 +9724,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9756,7 +9747,7 @@
         <v>32719945.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -9765,10 +9756,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9797,10 +9788,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9820,7 +9811,7 @@
         <v>39448302</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -9829,10 +9820,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9852,7 +9843,7 @@
         <v>39448302</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -9861,10 +9852,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9893,10 +9884,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9916,7 +9907,7 @@
         <v>22841526.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -9925,10 +9916,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -9948,7 +9939,7 @@
         <v>22841526.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -9957,10 +9948,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -9989,10 +9980,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10012,7 +10003,7 @@
         <v>6185943.5</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10021,10 +10012,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10044,7 +10035,7 @@
         <v>6185943.5</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10053,10 +10044,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10085,10 +10076,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10108,7 +10099,7 @@
         <v>6187856.5</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10117,10 +10108,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10140,7 +10131,7 @@
         <v>6187856.5</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10149,10 +10140,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10181,10 +10172,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10204,7 +10195,7 @@
         <v>17283887.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10213,10 +10204,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10236,7 +10227,7 @@
         <v>17283887.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10245,10 +10236,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10277,10 +10268,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10300,7 +10291,7 @@
         <v>38277586</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10309,10 +10300,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10332,7 +10323,7 @@
         <v>38277586</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10341,10 +10332,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10373,10 +10364,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10396,7 +10387,7 @@
         <v>6186195.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10405,10 +10396,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10428,7 +10419,7 @@
         <v>6186195.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10437,10 +10428,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10469,10 +10460,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10492,7 +10483,7 @@
         <v>32717484.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10501,10 +10492,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10524,7 +10515,7 @@
         <v>32717484.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10533,10 +10524,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10565,10 +10556,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10588,7 +10579,7 @@
         <v>28400047.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10597,10 +10588,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10620,7 +10611,7 @@
         <v>28400047.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10629,10 +10620,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10652,7 +10643,7 @@
         <v>39460882.5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10661,10 +10652,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10684,7 +10675,7 @@
         <v>39460882.5</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10693,10 +10684,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10725,10 +10716,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10757,10 +10748,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10789,10 +10780,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10812,7 +10803,7 @@
         <v>38274702.5</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -10821,10 +10812,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10844,7 +10835,7 @@
         <v>38274702.5</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -10853,10 +10844,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10876,7 +10867,7 @@
         <v>43838257</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -10885,10 +10876,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10908,7 +10899,7 @@
         <v>43838257</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -10917,10 +10908,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -10949,10 +10940,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -10972,7 +10963,7 @@
         <v>22839239.5</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -10981,10 +10972,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11004,7 +10995,7 @@
         <v>22839239.5</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11013,10 +11004,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11036,7 +11027,7 @@
         <v>11739436</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11045,10 +11036,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11068,7 +11059,7 @@
         <v>11739436</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11077,10 +11068,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11109,10 +11100,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11141,10 +11132,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11164,7 +11155,7 @@
         <v>28394319.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11173,10 +11164,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11196,7 +11187,7 @@
         <v>28394319.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11205,10 +11196,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11228,7 +11219,7 @@
         <v>33947633</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11237,10 +11228,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11260,7 +11251,7 @@
         <v>33947633</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11269,10 +11260,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11301,10 +11292,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11324,7 +11315,7 @@
         <v>5489211</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11333,10 +11324,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11356,7 +11347,7 @@
         <v>5489211</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11365,10 +11356,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11388,7 +11379,7 @@
         <v>5500043</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11397,10 +11388,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11420,7 +11411,7 @@
         <v>5500043</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11429,10 +11420,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11461,10 +11452,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11484,7 +11475,7 @@
         <v>43828390.5</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11493,10 +11484,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11516,7 +11507,7 @@
         <v>43828390.5</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11525,10 +11516,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11557,10 +11548,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11580,7 +11571,7 @@
         <v>11731705.5</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11589,10 +11580,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11612,7 +11603,7 @@
         <v>11731705.5</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11621,10 +11612,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11653,10 +11644,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11676,7 +11667,7 @@
         <v>49382164.5</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11685,10 +11676,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11708,7 +11699,7 @@
         <v>49382164.5</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11717,10 +11708,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11740,7 +11731,7 @@
         <v>11739957.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11749,10 +11740,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11772,7 +11763,7 @@
         <v>11739957.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -11781,10 +11772,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11813,10 +11804,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11836,7 +11827,7 @@
         <v>6178153</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -11845,10 +11836,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11868,7 +11859,7 @@
         <v>6178153</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11877,10 +11868,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11900,7 +11891,7 @@
         <v>17283437.5</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -11909,10 +11900,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11932,7 +11923,7 @@
         <v>17283437.5</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -11941,10 +11932,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -11964,7 +11955,7 @@
         <v>32720008</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -11973,10 +11964,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -11996,7 +11987,7 @@
         <v>32720008</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12005,10 +11996,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12037,10 +12028,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12060,7 +12051,7 @@
         <v>38279237.5</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12069,10 +12060,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12092,7 +12083,7 @@
         <v>38279237.5</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12101,10 +12092,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12124,7 +12115,7 @@
         <v>49391050</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12133,10 +12124,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12156,7 +12147,7 @@
         <v>49391050</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12165,10 +12156,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12188,7 +12179,7 @@
         <v>22841855</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12197,10 +12188,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12220,7 +12211,7 @@
         <v>22841855</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12229,10 +12220,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12252,7 +12243,7 @@
         <v>22841372</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12261,10 +12252,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12284,7 +12275,7 @@
         <v>22841372</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12293,10 +12284,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12316,7 +12307,7 @@
         <v>11727045</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12325,10 +12316,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12348,7 +12339,7 @@
         <v>11727045</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12357,10 +12348,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12380,7 +12371,7 @@
         <v>32713841</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12389,10 +12380,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12412,7 +12403,7 @@
         <v>32713841</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12421,10 +12412,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12453,10 +12444,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12476,7 +12467,7 @@
         <v>28388591.5</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12485,10 +12476,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12508,7 +12499,7 @@
         <v>28388591.5</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12517,10 +12508,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12540,7 +12531,7 @@
         <v>17279407.5</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12549,10 +12540,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12572,7 +12563,7 @@
         <v>17279407.5</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12581,10 +12572,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12604,7 +12595,7 @@
         <v>27157181</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12613,10 +12604,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12636,7 +12627,7 @@
         <v>27157181</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12645,10 +12636,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12677,10 +12668,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12700,7 +12691,7 @@
         <v>33949564.5</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12709,10 +12700,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12732,7 +12723,7 @@
         <v>33949564.5</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12741,10 +12732,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12773,10 +12764,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12796,7 +12787,7 @@
         <v>21608762.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -12805,10 +12796,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12828,7 +12819,7 @@
         <v>21608762.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -12837,10 +12828,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12860,7 +12851,7 @@
         <v>32711966.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -12869,10 +12860,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12892,7 +12883,7 @@
         <v>32711966.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -12901,10 +12892,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12924,7 +12915,7 @@
         <v>39463912</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -12933,10 +12924,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -12956,7 +12947,7 @@
         <v>39463912</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -12965,10 +12956,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -12997,10 +12988,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13020,7 +13011,7 @@
         <v>16061797.5</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13029,10 +13020,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13052,7 +13043,7 @@
         <v>16061797.5</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13061,10 +13052,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13084,7 +13075,7 @@
         <v>27162796</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13093,10 +13084,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13116,7 +13107,7 @@
         <v>27162796</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13125,10 +13116,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13154,7 +13145,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13184,7 +13175,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13212,27 +13203,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="28">
         <v>26957145.600000001</v>
@@ -13241,20 +13232,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5414204.120000001</v>
+        <v>5405348.120000001</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21542941.48</v>
+        <v>21551797.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28">
         <v>40426848</v>
@@ -13263,20 +13254,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8100472.6000000006</v>
+        <v>8093344.6000000006</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>32326375.399999999</v>
+        <v>32333503.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C5" s="28">
         <v>53896550.399999999</v>
@@ -13285,20 +13276,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10794890.08</v>
+        <v>10781125.08</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43101660.32</v>
+        <v>43115425.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="B6" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C6" s="28">
         <v>67366252.799999997</v>
@@ -13307,20 +13298,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13474756.560000001</v>
+        <v>13497415.560000001</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53891496.239999995</v>
+        <v>53868837.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="28">
         <v>80835955.199999988</v>
@@ -13329,20 +13320,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16174124.039999999</v>
+        <v>16186444.039999999</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64661831.159999989</v>
+        <v>64649511.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C8" s="28">
         <v>94305657.600000009</v>
@@ -13351,20 +13342,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18880150.520000003</v>
+        <v>18875363.520000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75425507.080000013</v>
+        <v>75430294.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="28">
         <v>107760576</v>
@@ -13373,20 +13364,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21576780.200000003</v>
+        <v>21556021.200000003</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86183795.799999997</v>
+        <v>86204554.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="28">
         <v>121082438.40000001</v>
@@ -13395,20 +13386,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24226641.680000003</v>
+        <v>24230291.680000003</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96855796.719999999</v>
+        <v>96852146.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
       <c r="B11" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="28">
         <v>133073740.8</v>
@@ -13417,20 +13408,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26620294.16</v>
+        <v>26628883.16</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>106453446.64</v>
+        <v>106444857.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C12" s="28">
         <v>146543443.19999999</v>
@@ -13439,20 +13430,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29323441.640000001</v>
+        <v>29327730.640000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117220001.55999999</v>
+        <v>117215712.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C13" s="28">
         <v>16608345.6</v>
@@ -13461,20 +13452,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3324402.12</v>
+        <v>3324988.12</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13283943.48</v>
+        <v>13283357.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C14" s="28">
         <v>33034848</v>
@@ -13483,20 +13474,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6628711.6000000006</v>
+        <v>6622718.6000000006</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26406136.399999999</v>
+        <v>26412129.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C15" s="28">
         <v>49461350.399999999</v>
@@ -13505,20 +13496,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9909441.0800000001</v>
+        <v>9900181.0800000001</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39551909.32</v>
+        <v>39561169.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16" s="28">
         <v>65887852.799999997</v>
@@ -13527,20 +13518,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13188338.560000001</v>
+        <v>13181317.560000001</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52699514.239999995</v>
+        <v>52706535.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C17" s="28">
         <v>82314355.199999988</v>
@@ -13549,20 +13540,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16480906.039999999</v>
+        <v>16482185.039999999</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65833449.159999989</v>
+        <v>65832170.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C18" s="28">
         <v>98740857.600000009</v>
@@ -13571,20 +13562,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19762936.520000003</v>
+        <v>19761010.520000003</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78977921.080000013</v>
+        <v>78979847.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="28">
         <v>115152576</v>
@@ -13593,20 +13584,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23036918.200000003</v>
+        <v>23037809.200000003</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92115657.799999997</v>
+        <v>92114766.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C20" s="28">
         <v>131431238.40000001</v>
@@ -13615,20 +13606,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26296698.680000003</v>
+        <v>26292249.680000003</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105134539.72</v>
+        <v>105138988.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" s="28">
         <v>146379340.80000001</v>
@@ -13637,20 +13628,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29289861.160000004</v>
+        <v>29280936.160000004</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117089479.64000002</v>
+        <v>117098404.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C22" s="28">
         <v>14965843.199999999</v>
@@ -13659,20 +13650,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3002036.64</v>
+        <v>3017328.6400000001</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11963806.559999999</v>
+        <v>11948514.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="28">
         <v>31392345.600000001</v>
@@ -13681,20 +13672,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6294128.120000001</v>
+        <v>6282560.120000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25098217.48</v>
+        <v>25109785.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C24" s="28">
         <v>47818848</v>
@@ -13703,20 +13694,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9579146.5999999996</v>
+        <v>9578574.5999999996</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38239701.399999999</v>
+        <v>38240273.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C25" s="28">
         <v>64245350.399999999</v>
@@ -13725,20 +13716,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12862531.08</v>
+        <v>12852148.08</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51382819.32</v>
+        <v>51393202.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="28">
         <v>80671852.799999997</v>
@@ -13747,20 +13738,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16137182.560000001</v>
+        <v>16148549.560000001</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64534670.239999995</v>
+        <v>64523303.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C27" s="28">
         <v>97098355.199999988</v>
@@ -13769,20 +13760,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19421717.039999999</v>
+        <v>19419713.039999999</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77676638.159999996</v>
+        <v>77678642.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C28" s="28">
         <v>113524857.59999999</v>
@@ -13791,20 +13782,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22722905.52</v>
+        <v>22726474.52</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90801952.079999998</v>
+        <v>90798383.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" s="28">
         <v>129936576</v>
@@ -13813,20 +13804,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25989876.200000003</v>
+        <v>26007322.200000003</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103946699.8</v>
+        <v>103929253.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C30" s="28">
         <v>146215238.40000001</v>
@@ -13835,20 +13826,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29266237.680000003</v>
+        <v>29257737.680000003</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116949000.72</v>
+        <v>116957500.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C31" s="28">
         <v>28107340.800000001</v>
@@ -13857,20 +13848,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5641156.1600000001</v>
+        <v>5624773.1600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22466184.640000001</v>
+        <v>22482567.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C32" s="28">
         <v>44533843.200000003</v>
@@ -13879,20 +13870,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8931033.6400000006</v>
+        <v>8929218.6400000006</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35602809.560000002</v>
+        <v>35604624.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C33" s="28">
         <v>60960345.599999987</v>
@@ -13901,20 +13892,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12192483.119999997</v>
+        <v>12198079.119999997</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48767862.479999989</v>
+        <v>48762266.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C34" s="28">
         <v>77386848</v>
@@ -13923,20 +13914,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15490096.600000001</v>
+        <v>15482145.600000001</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61896751.399999999</v>
+        <v>61904702.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C35" s="28">
         <v>93813350.399999991</v>
@@ -13945,20 +13936,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18763067.079999998</v>
+        <v>18770312.079999998</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75050283.319999993</v>
+        <v>75043038.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C36" s="28">
         <v>110239852.8</v>
@@ -13967,20 +13958,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22064939.560000002</v>
+        <v>22068681.560000002</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88174913.239999995</v>
+        <v>88171171.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C37" s="28">
         <v>126666355.2</v>
@@ -13989,20 +13980,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25347462.040000003</v>
+        <v>25353844.040000003</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101318893.16</v>
+        <v>101312511.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C38" s="28">
         <v>143092857.59999999</v>
@@ -14011,20 +14002,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28640103.52</v>
+        <v>28631080.52</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114452754.08</v>
+        <v>114461777.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C39" s="28">
         <v>26448576</v>
@@ -14033,20 +14024,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5302853.2</v>
+        <v>5305406.2</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21145722.800000001</v>
+        <v>21143169.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="27" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C40" s="28">
         <v>42727238.399999999</v>
@@ -14055,20 +14046,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F40" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8547970.6799999997</v>
+        <v>8559460.6799999997</v>
       </c>
       <c r="G40" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34179267.719999999</v>
+        <v>34167777.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" s="28">
         <v>57675340.799999997</v>
@@ -14077,20 +14068,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F41" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11544216.16</v>
+        <v>11555052.16</v>
       </c>
       <c r="G41" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46131124.640000001</v>
+        <v>46120288.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C42" s="28">
         <v>74101843.200000003</v>
@@ -14099,15 +14090,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F42" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14832428.640000001</v>
+        <v>14823998.640000001</v>
       </c>
       <c r="G42" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59269414.560000002</v>
+        <v>59277844.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14143,10 +14134,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14217,7 +14208,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C41" s="30">
         <v>6</v>
@@ -14235,7 +14226,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C42" s="30">
         <v>7</v>
@@ -14290,13 +14281,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14304,7 +14295,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14316,10 +14307,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14341,10 +14332,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14365,10 +14356,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14389,10 +14380,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14413,10 +14404,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14438,10 +14429,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14463,10 +14454,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14488,10 +14479,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14513,10 +14504,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14538,10 +14529,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14563,7 +14554,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14585,10 +14576,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14610,7 +14601,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14633,7 +14624,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14655,7 +14646,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14677,10 +14668,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14702,7 +14693,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14724,7 +14715,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14746,7 +14737,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14769,7 +14760,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14791,7 +14782,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14813,7 +14804,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14835,7 +14826,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14857,7 +14848,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14879,7 +14870,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14901,7 +14892,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14923,10 +14914,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14948,10 +14939,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14973,7 +14964,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -14995,7 +14986,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15018,7 +15009,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15040,10 +15031,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15065,10 +15056,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15090,10 +15081,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15115,10 +15106,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15140,7 +15131,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15162,7 +15153,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15184,7 +15175,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15206,10 +15197,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15231,10 +15222,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15256,7 +15247,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15278,7 +15269,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15300,7 +15291,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15322,7 +15313,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15344,7 +15335,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15366,7 +15357,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15388,7 +15379,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15410,7 +15401,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15432,7 +15423,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15454,7 +15445,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -15474,30 +15465,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>266</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15508,13 +15499,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15525,13 +15516,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15542,13 +15533,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15559,13 +15550,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15576,13 +15567,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15593,13 +15584,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
         <v>257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>260</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15610,13 +15601,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15627,13 +15618,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15644,13 +15635,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15661,13 +15652,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15678,13 +15669,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15695,13 +15686,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15712,13 +15703,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15729,13 +15720,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15746,13 +15737,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -15763,13 +15754,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -15780,13 +15771,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -15797,13 +15788,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -15814,13 +15805,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -15831,7 +15822,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -15842,13 +15833,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -15856,10 +15847,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -15867,7 +15858,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D25">
         <v>1</v>

--- a/Sample_Bank_Data/JUN 2024.xlsx
+++ b/Sample_Bank_Data/JUN 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{374CECE0-0D92-4CDA-88C9-4E5E9F1D3E07}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A574B7-E770-491E-B038-9AFDBCAAD7B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="306">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -8383,8 +8383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13185,10 +13185,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13201,7 +13201,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
         <v>192</v>
       </c>
@@ -13221,7 +13224,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
         <v>198</v>
       </c>
@@ -13236,14 +13242,17 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5405348.120000001</v>
+        <v>5408023.120000001</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21551797.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21549122.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>200</v>
       </c>
@@ -13258,14 +13267,17 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8093344.6000000006</v>
+        <v>8109178.6000000006</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>32333503.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32317669.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>201</v>
       </c>
@@ -13280,14 +13292,17 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10781125.08</v>
+        <v>10782104.08</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43115425.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43114446.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
         <v>202</v>
       </c>
@@ -13302,14 +13317,17 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13497415.560000001</v>
+        <v>13480060.560000001</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53868837.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53886192.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
         <v>203</v>
       </c>
@@ -13324,14 +13342,17 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16186444.039999999</v>
+        <v>16178368.039999999</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64649511.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64657587.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>204</v>
       </c>
@@ -13346,14 +13367,17 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18875363.520000003</v>
+        <v>18875134.520000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75430294.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75430523.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
         <v>205</v>
       </c>
@@ -13368,14 +13392,17 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21556021.200000003</v>
+        <v>21557257.200000003</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86204554.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86203318.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
         <v>206</v>
       </c>
@@ -13390,14 +13417,17 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24230291.680000003</v>
+        <v>24221508.680000003</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96852146.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96860929.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
         <v>207</v>
       </c>
@@ -13412,14 +13442,17 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26628883.16</v>
+        <v>26616013.16</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>106444857.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106457727.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
         <v>208</v>
       </c>
@@ -13434,14 +13467,17 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29327730.640000001</v>
+        <v>29309753.640000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117215712.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117233689.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
         <v>209</v>
       </c>
@@ -13456,14 +13492,17 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3324988.12</v>
+        <v>3341217.12</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13283357.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13267128.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
         <v>210</v>
       </c>
@@ -13478,14 +13517,17 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6622718.6000000006</v>
+        <v>6613308.6000000006</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26412129.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26421539.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
         <v>211</v>
       </c>
@@ -13500,14 +13542,17 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9900181.0800000001</v>
+        <v>9912431.0800000001</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39561169.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39548919.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
         <v>212</v>
       </c>
@@ -13522,14 +13567,17 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13181317.560000001</v>
+        <v>13184414.560000001</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52706535.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52703438.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
         <v>213</v>
       </c>
@@ -13544,14 +13592,17 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16482185.039999999</v>
+        <v>16478898.039999999</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65832170.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65835457.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
         <v>214</v>
       </c>
@@ -13566,14 +13617,17 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19761010.520000003</v>
+        <v>19760206.520000003</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78979847.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78980651.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
         <v>216</v>
       </c>
@@ -13588,14 +13642,17 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23037809.200000003</v>
+        <v>23037764.200000003</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92114766.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92114811.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
         <v>217</v>
       </c>
@@ -13610,14 +13667,17 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26292249.680000003</v>
+        <v>26298223.680000003</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105138988.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105133014.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
         <v>218</v>
       </c>
@@ -13632,14 +13692,17 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29280936.160000004</v>
+        <v>29286818.160000004</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117098404.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117092522.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
         <v>219</v>
       </c>
@@ -13654,14 +13717,17 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3017328.6400000001</v>
+        <v>3011486.64</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11948514.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11954356.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
         <v>220</v>
       </c>
@@ -13676,14 +13742,17 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6282560.120000001</v>
+        <v>6303371.120000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25109785.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25088974.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
         <v>221</v>
       </c>
@@ -13698,14 +13767,17 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9578574.5999999996</v>
+        <v>9586527.5999999996</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38240273.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38232320.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
         <v>222</v>
       </c>
@@ -13720,14 +13792,17 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12852148.08</v>
+        <v>12851607.08</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51393202.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51393743.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
         <v>223</v>
       </c>
@@ -13742,14 +13817,17 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16148549.560000001</v>
+        <v>16150088.560000001</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64523303.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64521764.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
         <v>224</v>
       </c>
@@ -13764,14 +13842,17 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19419713.039999999</v>
+        <v>19432773.039999999</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77678642.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77665582.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
         <v>225</v>
       </c>
@@ -13786,14 +13867,17 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22726474.52</v>
+        <v>22708453.52</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90798383.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90816404.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
         <v>226</v>
       </c>
@@ -13808,14 +13892,17 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26007322.200000003</v>
+        <v>26000541.200000003</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103929253.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103936034.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
         <v>227</v>
       </c>
@@ -13830,14 +13917,17 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29257737.680000003</v>
+        <v>29259743.680000003</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116957500.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116955494.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
         <v>228</v>
       </c>
@@ -13852,14 +13942,17 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5624773.1600000001</v>
+        <v>5641449.1600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22482567.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22465891.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
         <v>229</v>
       </c>
@@ -13874,14 +13967,17 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8929218.6400000006</v>
+        <v>8907642.6400000006</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35604624.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35626200.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
         <v>230</v>
       </c>
@@ -13896,14 +13992,17 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12198079.119999997</v>
+        <v>12195352.119999997</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48762266.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48764993.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
         <v>231</v>
       </c>
@@ -13918,14 +14017,17 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15482145.600000001</v>
+        <v>15485698.600000001</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61904702.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61901149.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
         <v>232</v>
       </c>
@@ -13940,14 +14042,17 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18770312.079999998</v>
+        <v>18768959.079999998</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75043038.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75044391.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
         <v>233</v>
       </c>
@@ -13962,14 +14067,17 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22068681.560000002</v>
+        <v>22056152.560000002</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88171171.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88183700.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="27" t="s">
         <v>234</v>
       </c>
@@ -13984,14 +14092,17 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25353844.040000003</v>
+        <v>25345552.040000003</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101312511.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101320803.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="27" t="s">
         <v>235</v>
       </c>
@@ -14006,14 +14117,17 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28631080.52</v>
+        <v>28638122.52</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114461777.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114454735.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="27" t="s">
         <v>236</v>
       </c>
@@ -14028,14 +14142,17 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5305406.2</v>
+        <v>5303980.2</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21143169.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21144595.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" s="27" t="s">
         <v>237</v>
       </c>
@@ -14050,14 +14167,17 @@
       </c>
       <c r="F40" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8559460.6799999997</v>
+        <v>8546415.6799999997</v>
       </c>
       <c r="G40" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34167777.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34180822.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
       <c r="B41" s="27" t="s">
         <v>238</v>
       </c>
@@ -14072,14 +14192,17 @@
       </c>
       <c r="F41" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11555052.16</v>
+        <v>11538057.16</v>
       </c>
       <c r="G41" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46120288.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46137283.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
       <c r="B42" s="27" t="s">
         <v>239</v>
       </c>
@@ -14094,11 +14217,11 @@
       </c>
       <c r="F42" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14823998.640000001</v>
+        <v>14824034.640000001</v>
       </c>
       <c r="G42" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59277844.560000002</v>
+        <v>59277808.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14108,10 +14231,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14123,7 +14246,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14140,7 +14266,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>47</v>
       </c>
@@ -14156,7 +14285,10 @@
         <v>46160</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>48</v>
       </c>
@@ -14172,7 +14304,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="30" t="s">
         <v>51</v>
       </c>
@@ -14190,7 +14325,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="30" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/JUN 2024.xlsx
+++ b/Sample_Bank_Data/JUN 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74A574B7-E770-491E-B038-9AFDBCAAD7B4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E17D5F2-C32B-4DB7-9075-FFE0C087EA5C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -3236,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8384,7 +8384,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:A38"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13242,11 +13242,11 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5408023.120000001</v>
+        <v>5404812.120000001</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21549122.48</v>
+        <v>21552333.48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13267,11 +13267,11 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8109178.6000000006</v>
+        <v>8108219.6000000006</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>32317669.399999999</v>
+        <v>32318628.399999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -13292,11 +13292,11 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10782104.08</v>
+        <v>10792532.08</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43114446.32</v>
+        <v>43104018.32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
@@ -13317,11 +13317,11 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13480060.560000001</v>
+        <v>13489119.560000001</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53886192.239999995</v>
+        <v>53877133.239999995</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -13342,11 +13342,11 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16178368.039999999</v>
+        <v>16186565.039999999</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64657587.159999989</v>
+        <v>64649390.159999989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13367,11 +13367,11 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18875134.520000003</v>
+        <v>18884348.520000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75430523.080000013</v>
+        <v>75421309.080000013</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
@@ -13392,11 +13392,11 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21557257.200000003</v>
+        <v>21559127.200000003</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86203318.799999997</v>
+        <v>86201448.799999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13417,11 +13417,11 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24221508.680000003</v>
+        <v>24236623.680000003</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96860929.719999999</v>
+        <v>96845814.719999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
@@ -13442,11 +13442,11 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26616013.16</v>
+        <v>26622643.16</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>106457727.64</v>
+        <v>106451097.64</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13467,11 +13467,11 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29309753.640000001</v>
+        <v>29330432.640000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117233689.55999999</v>
+        <v>117213010.55999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13492,11 +13492,11 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3341217.12</v>
+        <v>3331077.12</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13267128.48</v>
+        <v>13277268.48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13517,11 +13517,11 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6613308.6000000006</v>
+        <v>6613379.6000000006</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26421539.399999999</v>
+        <v>26421468.399999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
@@ -13542,11 +13542,11 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9912431.0800000001</v>
+        <v>9907134.0800000001</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39548919.32</v>
+        <v>39554216.32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13567,11 +13567,11 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13184414.560000001</v>
+        <v>13179610.560000001</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52703438.239999995</v>
+        <v>52708242.239999995</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13592,11 +13592,11 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16478898.039999999</v>
+        <v>16468255.039999999</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65835457.159999989</v>
+        <v>65846100.159999989</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13617,11 +13617,11 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19760206.520000003</v>
+        <v>19761244.520000003</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78980651.080000013</v>
+        <v>78979613.080000013</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
@@ -13642,11 +13642,11 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23037764.200000003</v>
+        <v>23046820.200000003</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92114811.799999997</v>
+        <v>92105755.799999997</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13667,11 +13667,11 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26298223.680000003</v>
+        <v>26295938.680000003</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105133014.72</v>
+        <v>105135299.72</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29286818.160000004</v>
+        <v>29284015.160000004</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117092522.64000002</v>
+        <v>117095325.64000002</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13717,11 +13717,11 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3011486.64</v>
+        <v>3002016.64</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11954356.559999999</v>
+        <v>11963826.559999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13742,11 +13742,11 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6303371.120000001</v>
+        <v>6283025.120000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25088974.48</v>
+        <v>25109320.48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -13767,11 +13767,11 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9586527.5999999996</v>
+        <v>9582562.5999999996</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38232320.399999999</v>
+        <v>38236285.399999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
@@ -13792,11 +13792,11 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12851607.08</v>
+        <v>12850675.08</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51393743.32</v>
+        <v>51394675.32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -13817,11 +13817,11 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16150088.560000001</v>
+        <v>16154100.560000001</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64521764.239999995</v>
+        <v>64517752.239999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -13842,11 +13842,11 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19432773.039999999</v>
+        <v>19421485.039999999</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77665582.159999996</v>
+        <v>77676870.159999996</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -13867,11 +13867,11 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22708453.52</v>
+        <v>22711970.52</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90816404.079999998</v>
+        <v>90812887.079999998</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -13892,11 +13892,11 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26000541.200000003</v>
+        <v>25998509.200000003</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103936034.8</v>
+        <v>103938066.8</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -13917,11 +13917,11 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29259743.680000003</v>
+        <v>29266243.680000003</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116955494.72</v>
+        <v>116948994.72</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -13942,11 +13942,11 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5641449.1600000001</v>
+        <v>5641404.1600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22465891.640000001</v>
+        <v>22465936.640000001</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -13967,11 +13967,11 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8907642.6400000006</v>
+        <v>8928990.6400000006</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35626200.560000002</v>
+        <v>35604852.560000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -13992,11 +13992,11 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12195352.119999997</v>
+        <v>12207623.119999997</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48764993.479999989</v>
+        <v>48752722.479999989</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14017,11 +14017,11 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15485698.600000001</v>
+        <v>15491263.600000001</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61901149.399999999</v>
+        <v>61895584.399999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14042,11 +14042,11 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18768959.079999998</v>
+        <v>18775894.079999998</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75044391.319999993</v>
+        <v>75037456.319999993</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -14067,11 +14067,11 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22056152.560000002</v>
+        <v>22052088.560000002</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88183700.239999995</v>
+        <v>88187764.239999995</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14092,11 +14092,11 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25345552.040000003</v>
+        <v>25347865.040000003</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101320803.16</v>
+        <v>101318490.16</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14117,11 +14117,11 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28638122.52</v>
+        <v>28622850.52</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114454735.08</v>
+        <v>114470007.08</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
@@ -14142,11 +14142,11 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5303980.2</v>
+        <v>5298631.2</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21144595.800000001</v>
+        <v>21149944.800000001</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="F40" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8546415.6799999997</v>
+        <v>8548036.6799999997</v>
       </c>
       <c r="G40" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34180822.719999999</v>
+        <v>34179201.719999999</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -14192,11 +14192,11 @@
       </c>
       <c r="F41" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11538057.16</v>
+        <v>11541374.16</v>
       </c>
       <c r="G41" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46137283.640000001</v>
+        <v>46133966.640000001</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -14217,11 +14217,11 @@
       </c>
       <c r="F42" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14824034.640000001</v>
+        <v>14820773.640000001</v>
       </c>
       <c r="G42" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59277808.560000002</v>
+        <v>59281069.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14233,7 +14233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>

--- a/Sample_Bank_Data/JUN 2024.xlsx
+++ b/Sample_Bank_Data/JUN 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFFE07B2-2724-42B7-830B-400E1E4FEBDB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{22EA9E2E-1A53-48CB-9C29-531906FBDEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E17D5F2-C32B-4DB7-9075-FFE0C087EA5C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="306">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -520,370 +511,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -1941,21 +1677,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1969,7 +1705,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1983,7 +1719,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1997,7 +1733,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2011,7 +1747,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2025,7 +1761,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2039,7 +1775,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2053,7 +1789,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2067,7 +1803,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2081,7 +1817,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2095,7 +1831,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2109,7 +1845,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2123,7 +1859,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2137,7 +1873,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2151,7 +1887,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2165,7 +1901,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2179,7 +1915,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2193,7 +1929,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2207,7 +1943,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2221,7 +1957,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2235,7 +1971,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="B22">
         <v>17</v>
@@ -2275,22 +2011,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3500,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8647,8 +8383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8699,7 +8435,7 @@
         <v>6344233.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8708,10 +8444,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8731,7 +8467,7 @@
         <v>6344233.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8740,10 +8476,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8772,10 +8508,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8795,7 +8531,7 @@
         <v>12468699.5</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8804,10 +8540,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8827,7 +8563,7 @@
         <v>12468699.5</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8836,10 +8572,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8859,7 +8595,7 @@
         <v>49387628.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8868,10 +8604,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8891,7 +8627,7 @@
         <v>49387628.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8900,10 +8636,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8932,10 +8668,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8955,7 +8691,7 @@
         <v>49401707</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8964,10 +8700,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8987,7 +8723,7 @@
         <v>49401707</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8996,10 +8732,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9019,7 +8755,7 @@
         <v>11738751</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9028,10 +8764,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -9051,7 +8787,7 @@
         <v>11738751</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -9060,10 +8796,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -9083,7 +8819,7 @@
         <v>38281106</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -9092,10 +8828,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -9115,7 +8851,7 @@
         <v>38281106</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -9124,10 +8860,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -9156,10 +8892,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9179,7 +8915,7 @@
         <v>28393414</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9188,10 +8924,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9211,7 +8947,7 @@
         <v>28393414</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9220,10 +8956,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9243,7 +8979,7 @@
         <v>43831322</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9252,10 +8988,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9275,7 +9011,7 @@
         <v>43831322</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9284,10 +9020,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9307,7 +9043,7 @@
         <v>27156493.5</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9316,10 +9052,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9339,7 +9075,7 @@
         <v>27156493.5</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9348,10 +9084,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9371,7 +9107,7 @@
         <v>11729411</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9380,10 +9116,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9403,7 +9139,7 @@
         <v>11729411</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9412,10 +9148,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9435,7 +9171,7 @@
         <v>33951228.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9444,10 +9180,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9467,7 +9203,7 @@
         <v>33951228.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9476,10 +9212,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9499,7 +9235,7 @@
         <v>16065905.5</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9508,10 +9244,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9531,7 +9267,7 @@
         <v>16065905.5</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9540,10 +9276,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9563,7 +9299,7 @@
         <v>38280990</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9572,10 +9308,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9595,7 +9331,7 @@
         <v>38280990</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9604,10 +9340,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9636,10 +9372,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9659,7 +9395,7 @@
         <v>10546395.5</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9668,10 +9404,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9691,7 +9427,7 @@
         <v>10546395.5</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9700,10 +9436,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9723,7 +9459,7 @@
         <v>45075619</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9732,10 +9468,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9755,7 +9491,7 @@
         <v>45075619</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9764,10 +9500,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9796,10 +9532,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9819,7 +9555,7 @@
         <v>49385003</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9828,10 +9564,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9851,7 +9587,7 @@
         <v>49385003</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9860,10 +9596,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9892,10 +9628,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9915,7 +9651,7 @@
         <v>11734816</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9924,10 +9660,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9947,7 +9683,7 @@
         <v>11734816</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9956,10 +9692,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9979,7 +9715,7 @@
         <v>32719945.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9988,10 +9724,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10011,7 +9747,7 @@
         <v>32719945.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10020,10 +9756,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10052,10 +9788,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10075,7 +9811,7 @@
         <v>39448302</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -10084,10 +9820,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10107,7 +9843,7 @@
         <v>39448302</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10116,10 +9852,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10148,10 +9884,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10171,7 +9907,7 @@
         <v>22841526.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -10180,10 +9916,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10203,7 +9939,7 @@
         <v>22841526.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10212,10 +9948,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10244,10 +9980,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10267,7 +10003,7 @@
         <v>6185943.5</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10276,10 +10012,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10299,7 +10035,7 @@
         <v>6185943.5</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10308,10 +10044,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10340,10 +10076,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>182</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10363,7 +10099,7 @@
         <v>6187856.5</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10372,10 +10108,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10395,7 +10131,7 @@
         <v>6187856.5</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10404,10 +10140,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10436,10 +10172,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10459,7 +10195,7 @@
         <v>17283887.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10468,10 +10204,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10491,7 +10227,7 @@
         <v>17283887.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10500,10 +10236,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10532,10 +10268,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10555,7 +10291,7 @@
         <v>38277586</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10564,10 +10300,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10587,7 +10323,7 @@
         <v>38277586</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10596,10 +10332,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>190</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10628,10 +10364,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10651,7 +10387,7 @@
         <v>6186195.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10660,10 +10396,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10683,7 +10419,7 @@
         <v>6186195.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10692,10 +10428,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10724,10 +10460,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10747,7 +10483,7 @@
         <v>32717484.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10756,10 +10492,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10779,7 +10515,7 @@
         <v>32717484.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10788,10 +10524,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10820,10 +10556,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10843,7 +10579,7 @@
         <v>28400047.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10852,10 +10588,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10875,7 +10611,7 @@
         <v>28400047.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10884,10 +10620,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10907,7 +10643,7 @@
         <v>39460882.5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10916,10 +10652,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10939,7 +10675,7 @@
         <v>39460882.5</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10948,10 +10684,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10980,10 +10716,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11012,10 +10748,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11044,10 +10780,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11067,7 +10803,7 @@
         <v>38274702.5</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -11076,10 +10812,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11099,7 +10835,7 @@
         <v>38274702.5</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -11108,10 +10844,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11131,7 +10867,7 @@
         <v>43838257</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -11140,10 +10876,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11163,7 +10899,7 @@
         <v>43838257</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -11172,10 +10908,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11204,10 +10940,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11227,7 +10963,7 @@
         <v>22839239.5</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11236,10 +10972,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11259,7 +10995,7 @@
         <v>22839239.5</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11268,10 +11004,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11291,7 +11027,7 @@
         <v>11739436</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11300,10 +11036,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11323,7 +11059,7 @@
         <v>11739436</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11332,10 +11068,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11364,10 +11100,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11396,10 +11132,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11419,7 +11155,7 @@
         <v>28394319.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11428,10 +11164,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11451,7 +11187,7 @@
         <v>28394319.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11460,10 +11196,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11483,7 +11219,7 @@
         <v>33947633</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11492,10 +11228,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>218</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11515,7 +11251,7 @@
         <v>33947633</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11524,10 +11260,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11556,10 +11292,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11579,7 +11315,7 @@
         <v>5489211</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11588,10 +11324,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11611,7 +11347,7 @@
         <v>5489211</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11620,10 +11356,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11643,7 +11379,7 @@
         <v>5500043</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11652,10 +11388,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11675,7 +11411,7 @@
         <v>5500043</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11684,10 +11420,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11716,10 +11452,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11739,7 +11475,7 @@
         <v>43828390.5</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11748,10 +11484,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11771,7 +11507,7 @@
         <v>43828390.5</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11780,10 +11516,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11812,10 +11548,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11835,7 +11571,7 @@
         <v>11731705.5</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11844,10 +11580,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11867,7 +11603,7 @@
         <v>11731705.5</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11876,10 +11612,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11908,10 +11644,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>231</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11931,7 +11667,7 @@
         <v>49382164.5</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11940,10 +11676,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11963,7 +11699,7 @@
         <v>49382164.5</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11972,10 +11708,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11995,7 +11731,7 @@
         <v>11739957.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -12004,10 +11740,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12027,7 +11763,7 @@
         <v>11739957.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12036,10 +11772,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12068,10 +11804,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12091,7 +11827,7 @@
         <v>6178153</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -12100,10 +11836,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12123,7 +11859,7 @@
         <v>6178153</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -12132,10 +11868,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12155,7 +11891,7 @@
         <v>17283437.5</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -12164,10 +11900,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12187,7 +11923,7 @@
         <v>17283437.5</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12196,10 +11932,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12219,7 +11955,7 @@
         <v>32720008</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12228,10 +11964,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12251,7 +11987,7 @@
         <v>32720008</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12260,10 +11996,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12292,10 +12028,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12315,7 +12051,7 @@
         <v>38279237.5</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12324,10 +12060,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12347,7 +12083,7 @@
         <v>38279237.5</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12356,10 +12092,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12379,7 +12115,7 @@
         <v>49391050</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12388,10 +12124,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12411,7 +12147,7 @@
         <v>49391050</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12420,10 +12156,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12443,7 +12179,7 @@
         <v>22841855</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12452,10 +12188,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12475,7 +12211,7 @@
         <v>22841855</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12484,10 +12220,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>249</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12507,7 +12243,7 @@
         <v>22841372</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12516,10 +12252,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12539,7 +12275,7 @@
         <v>22841372</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12548,10 +12284,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12571,7 +12307,7 @@
         <v>11727045</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12580,10 +12316,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12603,7 +12339,7 @@
         <v>11727045</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12612,10 +12348,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12635,7 +12371,7 @@
         <v>32713841</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12644,10 +12380,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12667,7 +12403,7 @@
         <v>32713841</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12676,10 +12412,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12708,10 +12444,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12731,7 +12467,7 @@
         <v>28388591.5</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12740,10 +12476,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12763,7 +12499,7 @@
         <v>28388591.5</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12772,10 +12508,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12795,7 +12531,7 @@
         <v>17279407.5</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12804,10 +12540,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12827,7 +12563,7 @@
         <v>17279407.5</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12836,10 +12572,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12859,7 +12595,7 @@
         <v>27157181</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12868,10 +12604,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12891,7 +12627,7 @@
         <v>27157181</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12900,10 +12636,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12932,10 +12668,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12955,7 +12691,7 @@
         <v>33949564.5</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12964,10 +12700,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12987,7 +12723,7 @@
         <v>33949564.5</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12996,10 +12732,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13028,10 +12764,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13051,7 +12787,7 @@
         <v>21608762.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13060,10 +12796,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13083,7 +12819,7 @@
         <v>21608762.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -13092,10 +12828,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13115,7 +12851,7 @@
         <v>32711966.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -13124,10 +12860,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13147,7 +12883,7 @@
         <v>32711966.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -13156,10 +12892,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13179,7 +12915,7 @@
         <v>39463912</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13188,10 +12924,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13211,7 +12947,7 @@
         <v>39463912</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13220,10 +12956,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13252,10 +12988,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13275,7 +13011,7 @@
         <v>16061797.5</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13284,10 +13020,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13307,7 +13043,7 @@
         <v>16061797.5</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13316,10 +13052,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13339,7 +13075,7 @@
         <v>27162796</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13348,10 +13084,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>276</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13371,7 +13107,7 @@
         <v>27162796</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13380,10 +13116,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13409,7 +13145,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13439,7 +13175,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13449,10 +13185,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13465,29 +13201,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="C3" s="28">
         <v>26957145.600000001</v>
@@ -13496,20 +13238,23 @@
         <v>2024</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5398642.120000001</v>
+        <v>5404812.120000001</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21558503.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21552333.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28">
         <v>40426848</v>
@@ -13518,20 +13263,23 @@
         <v>2023</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8105077.6000000006</v>
+        <v>8108219.6000000006</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>32321770.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32318628.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="C5" s="28">
         <v>53896550.399999999</v>
@@ -13540,20 +13288,23 @@
         <v>2022</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10790676.08</v>
+        <v>10792532.08</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43105874.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43104018.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="C6" s="28">
         <v>67366252.799999997</v>
@@ -13562,20 +13313,23 @@
         <v>2019</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13489969.560000001</v>
+        <v>13489119.560000001</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53876283.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53877133.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C7" s="28">
         <v>80835955.199999988</v>
@@ -13584,20 +13338,23 @@
         <v>2024</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16187233.039999999</v>
+        <v>16186565.039999999</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64648722.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64649390.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C8" s="28">
         <v>94305657.600000009</v>
@@ -13606,20 +13363,23 @@
         <v>2023</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18869621.520000003</v>
+        <v>18884348.520000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75436036.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75421309.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C9" s="28">
         <v>107760576</v>
@@ -13628,20 +13388,23 @@
         <v>2022</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21552978.200000003</v>
+        <v>21559127.200000003</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86207597.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86201448.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C10" s="28">
         <v>121082438.40000001</v>
@@ -13650,20 +13413,23 @@
         <v>2019</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24235246.680000003</v>
+        <v>24236623.680000003</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96847191.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96845814.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C11" s="28">
         <v>133073740.8</v>
@@ -13672,20 +13438,23 @@
         <v>2024</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26617225.16</v>
+        <v>26622643.16</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>106456515.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106451097.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C12" s="28">
         <v>146543443.19999999</v>
@@ -13694,20 +13463,23 @@
         <v>2023</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29316797.640000001</v>
+        <v>29330432.640000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117226645.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117213010.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C13" s="28">
         <v>16608345.6</v>
@@ -13716,20 +13488,23 @@
         <v>2022</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3322402.12</v>
+        <v>3331077.12</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13285943.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13277268.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C14" s="28">
         <v>33034848</v>
@@ -13738,20 +13513,23 @@
         <v>2019</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6614204.6000000006</v>
+        <v>6613379.6000000006</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26420643.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26421468.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C15" s="28">
         <v>49461350.399999999</v>
@@ -13760,20 +13538,23 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9913151.0800000001</v>
+        <v>9907134.0800000001</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39548199.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39554216.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C16" s="28">
         <v>65887852.799999997</v>
@@ -13782,20 +13563,23 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13193527.560000001</v>
+        <v>13179610.560000001</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52694325.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52708242.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C17" s="28">
         <v>82314355.199999988</v>
@@ -13804,20 +13588,23 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16474689.039999999</v>
+        <v>16468255.039999999</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65839666.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65846100.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="C18" s="28">
         <v>98740857.600000009</v>
@@ -13826,20 +13613,23 @@
         <v>2020</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19772014.520000003</v>
+        <v>19761244.520000003</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78968843.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78979613.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C19" s="28">
         <v>115152576</v>
@@ -13848,20 +13638,23 @@
         <v>2020</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23047613.200000003</v>
+        <v>23046820.200000003</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92104962.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92105755.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C20" s="28">
         <v>131431238.40000001</v>
@@ -13870,20 +13663,23 @@
         <v>2020</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26286550.680000003</v>
+        <v>26295938.680000003</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105144687.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105135299.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C21" s="28">
         <v>146379340.80000001</v>
@@ -13892,20 +13688,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29288322.160000004</v>
+        <v>29284015.160000004</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117091018.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117095325.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C22" s="28">
         <v>14965843.199999999</v>
@@ -13914,20 +13713,23 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3011595.64</v>
+        <v>3002016.64</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11954247.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11963826.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C23" s="28">
         <v>31392345.600000001</v>
@@ -13936,20 +13738,23 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6289463.120000001</v>
+        <v>6283025.120000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25102882.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25109320.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C24" s="28">
         <v>47818848</v>
@@ -13958,20 +13763,23 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9564516.5999999996</v>
+        <v>9582562.5999999996</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38254331.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38236285.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C25" s="28">
         <v>64245350.399999999</v>
@@ -13980,20 +13788,23 @@
         <v>2017</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12870974.08</v>
+        <v>12850675.08</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51374376.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51394675.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C26" s="28">
         <v>80671852.799999997</v>
@@ -14002,20 +13813,23 @@
         <v>2017</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16142780.560000001</v>
+        <v>16154100.560000001</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64529072.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64517752.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C27" s="28">
         <v>97098355.199999988</v>
@@ -14024,20 +13838,23 @@
         <v>2017</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19421425.039999999</v>
+        <v>19421485.039999999</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77676930.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77676870.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C28" s="28">
         <v>113524857.59999999</v>
@@ -14046,20 +13863,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22729724.52</v>
+        <v>22711970.52</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90795133.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90812887.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C29" s="28">
         <v>129936576</v>
@@ -14068,20 +13888,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26008921.200000003</v>
+        <v>25998509.200000003</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103927654.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103938066.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C30" s="28">
         <v>146215238.40000001</v>
@@ -14090,20 +13913,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29248943.680000003</v>
+        <v>29266243.680000003</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116966294.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116948994.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C31" s="28">
         <v>28107340.800000001</v>
@@ -14112,20 +13938,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5628583.1600000001</v>
+        <v>5641404.1600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22478757.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22465936.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C32" s="28">
         <v>44533843.200000003</v>
@@ -14134,20 +13963,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8913093.6400000006</v>
+        <v>8928990.6400000006</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35620749.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35604852.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C33" s="28">
         <v>60960345.599999987</v>
@@ -14156,20 +13988,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12202538.119999997</v>
+        <v>12207623.119999997</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48757807.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48752722.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C34" s="28">
         <v>77386848</v>
@@ -14178,20 +14013,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15494753.600000001</v>
+        <v>15491263.600000001</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61892094.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61895584.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C35" s="28">
         <v>93813350.399999991</v>
@@ -14200,20 +14038,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18785741.079999998</v>
+        <v>18775894.079999998</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75027609.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75037456.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C36" s="28">
         <v>110239852.8</v>
@@ -14222,20 +14063,23 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22049259.560000002</v>
+        <v>22052088.560000002</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88190593.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88187764.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="27" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C37" s="28">
         <v>126666355.2</v>
@@ -14244,20 +14088,23 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25337519.040000003</v>
+        <v>25347865.040000003</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101328836.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101318490.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C38" s="28">
         <v>143092857.59999999</v>
@@ -14266,20 +14113,23 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28623019.52</v>
+        <v>28622850.52</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114469838.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114470007.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="27" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C39" s="28">
         <v>26448576</v>
@@ -14288,20 +14138,23 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5312220.2</v>
+        <v>5298631.2</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21136355.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21149944.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" s="27" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="C40" s="28">
         <v>42727238.399999999</v>
@@ -14310,20 +14163,23 @@
         <v>2015</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F40" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8553048.6799999997</v>
+        <v>8548036.6799999997</v>
       </c>
       <c r="G40" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34174189.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34179201.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
       <c r="B41" s="27" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C41" s="28">
         <v>57675340.799999997</v>
@@ -14332,20 +14188,23 @@
         <v>2015</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F41" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11553048.16</v>
+        <v>11541374.16</v>
       </c>
       <c r="G41" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46122292.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46133966.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
       <c r="B42" s="27" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="C42" s="28">
         <v>74101843.200000003</v>
@@ -14354,15 +14213,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F42" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14828493.640000001</v>
+        <v>14820773.640000001</v>
       </c>
       <c r="G42" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59273349.560000002</v>
+        <v>59281069.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14372,10 +14231,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14387,7 +14246,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14398,13 +14260,16 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>47</v>
       </c>
@@ -14420,7 +14285,10 @@
         <v>46160</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>48</v>
       </c>
@@ -14436,7 +14304,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="30" t="s">
         <v>51</v>
       </c>
@@ -14454,7 +14325,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="30" t="s">
         <v>52</v>
       </c>
@@ -14472,7 +14346,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="30" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C41" s="30">
         <v>6</v>
@@ -14490,7 +14364,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="30" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="C42" s="30">
         <v>7</v>
@@ -14545,13 +14419,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14559,7 +14433,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14571,10 +14445,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14596,10 +14470,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14620,10 +14494,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14644,10 +14518,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14668,10 +14542,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14693,10 +14567,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14718,10 +14592,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14743,10 +14617,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14768,10 +14642,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14793,10 +14667,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14818,7 +14692,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14840,10 +14714,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14865,7 +14739,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14888,7 +14762,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14910,7 +14784,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14932,10 +14806,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14957,7 +14831,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14979,7 +14853,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15001,7 +14875,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15024,7 +14898,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15046,7 +14920,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15068,7 +14942,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15090,7 +14964,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15112,7 +14986,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15134,7 +15008,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15156,7 +15030,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15178,10 +15052,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15203,10 +15077,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15228,7 +15102,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15250,7 +15124,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15273,7 +15147,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15295,10 +15169,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15320,10 +15194,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H34" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15345,10 +15219,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H35" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15370,10 +15244,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15395,7 +15269,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15417,7 +15291,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15439,7 +15313,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15461,10 +15335,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H40" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15486,10 +15360,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H41" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15511,7 +15385,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15533,7 +15407,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15555,7 +15429,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15577,7 +15451,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15599,7 +15473,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15621,7 +15495,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15643,7 +15517,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15665,7 +15539,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15687,7 +15561,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15709,7 +15583,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -15729,30 +15603,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15763,13 +15637,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15780,13 +15654,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15797,13 +15671,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15814,13 +15688,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15831,13 +15705,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15848,13 +15722,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15865,13 +15739,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15882,13 +15756,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15899,13 +15773,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15916,13 +15790,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15933,13 +15807,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15950,13 +15824,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15967,13 +15841,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15984,13 +15858,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -16001,13 +15875,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -16018,13 +15892,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -16035,13 +15909,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -16052,13 +15926,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -16069,13 +15943,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -16086,7 +15960,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -16097,13 +15971,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16111,10 +15985,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16122,7 +15996,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D25">
         <v>1</v>
